--- a/biology/Botanique/Brome_du_Japon/Brome_du_Japon.xlsx
+++ b/biology/Botanique/Brome_du_Japon/Brome_du_Japon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bromus japonicus, le Brome japonais, Brome du Japon ou Brome étalé[2], est une espèce de plantes monocotylédones de la famille des Poaceae, originaire d'Eurasie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bromus japonicus, le Brome japonais, Brome du Japon ou Brome étalé, est une espèce de plantes monocotylédones de la famille des Poaceae, originaire d'Eurasie.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le brome japonais est une plante herbacée annuelle qui peut atteindre de 40 cm à 1 m de haut.
 Les feuilles ont un limbe plat, tomenteux, d'environ 2,5 à 20 cm de long sur 8 à 16 mm de large.
 L'inflorescence est une panicule ouverte, de 5 à 18 cm environ de long, aux ramifications étalées et retombantes.
-Les épillets, longs de 1,3 à 2,6 cm, comptent de six à dix fleurs[3].
+Les épillets, longs de 1,3 à 2,6 cm, comptent de six à dix fleurs.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition de Bromus japonicus s'étend principalement en Eurasie d'où elle est originaire. 
 Cette aire comprend les pays suivants :
@@ -555,8 +571,8 @@
 Asie orientale : Mongolie, Extrême-Orient russe, Sibérie, Primorié, Krasnoyarsk,
 Asie occidentale : Afghanistan, Chypre, Iran, Iraq, Liban-Syrie, Palestine, Sinaï, Turquie,
 Asie tropicale : sous-continent indien, Népal, Pakistan,
-Europe orientale : Russie, Crimée, Ukraine, Europe centrale : Autriche, république tchèque, Allemagne, Hongrie, Pologne, Suisse, Europe méridionale : Albanie, Bulgarie, Grèce, Italie, Roumanie, ex-Yougoslavie, France[4].
-L'espèce a été introduite également en Europe orientale : pays baltes, Biélorussie, ainsi qu'en Amérique du Nord : Mexique, Sud-est des États-Unis, Canada[5], et en Amérique du Sud[4].
+Europe orientale : Russie, Crimée, Ukraine, Europe centrale : Autriche, république tchèque, Allemagne, Hongrie, Pologne, Suisse, Europe méridionale : Albanie, Bulgarie, Grèce, Italie, Roumanie, ex-Yougoslavie, France.
+L'espèce a été introduite également en Europe orientale : pays baltes, Biélorussie, ainsi qu'en Amérique du Nord : Mexique, Sud-est des États-Unis, Canada, et en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -587,23 +603,96 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Catalogue of Life                                   (29 mai 2016)[6] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 mai 2016) :
 Bromus arvensis var. japonicus (Houtt.) Fiori,
 Bromus japonicus subsp. typicus Pénzes, nom. inval.,
-Serrafalcus japonicus (Houtt.) Wilmott.
-Liste des sous-espèces
-Selon Catalogue of Life                                   (29 mai 2016)[6] :
+Serrafalcus japonicus (Houtt.) Wilmott.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brome_du_Japon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brome_du_Japon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 mai 2016) :
 sous-espèce Bromus japonicus subsp. anatolicus (Boiss. &amp; Heldr.) Pénzes
 sous-espèce Bromus japonicus subsp. japonicus
-Selon World Checklist of Selected Plant Families (WCSP)  (29 mai 2016)[7] :
+Selon World Checklist of Selected Plant Families (WCSP)  (29 mai 2016) :
 sous-espèce Bromus japonicus subsp. anatolicus (Boiss. &amp; Heldr.) Pénzes (1936)
 sous-espèce Bromus japonicus subsp. japonicus
-Selon The Plant List            (29 mai 2016)[1] :
+Selon The Plant List            (29 mai 2016) :
 sous-espèce Bromus japonicus subsp. anatolicus (Boiss. &amp; Heldr.) Pénzes
-variété Bromus japonicus var. chiapporianus (De Not.) Pènzes
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (29 mai 2016)[8] (Attention liste brute contenant possiblement des synonymes) :
+variété Bromus japonicus var. chiapporianus (De Not.) Pènzes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brome_du_Japon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brome_du_Japon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (29 mai 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Bromus japonicus subsp. anatolicus (Boiss. &amp; Heldr.) Pènzes
 sous-espèce Bromus japonicus subsp. japonicus
 sous-espèce Bromus japonicus subsp. phrygius (Boiss.) Pènzes
